--- a/PROJECT/specifiche_sistema_boe.xlsx
+++ b/PROJECT/specifiche_sistema_boe.xlsx
@@ -1,23 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10917"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\Documents\A-PROGETTI\borsa unisalento\Dottorato\corsi\sistemi multiagente\esercitazione boe\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danilogiovannico/Desktop/ACT/ACT/PROJECT/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81E1B5AD-245C-734A-A26A-10D477B5279C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7476" windowHeight="2808"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="29060" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -26,15 +32,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
   <si>
-    <t>quantità</t>
-  </si>
-  <si>
     <t>Unita di misura</t>
   </si>
   <si>
-    <t xml:space="preserve">descrizione </t>
-  </si>
-  <si>
     <t>Massima capacità batteria boa</t>
   </si>
   <si>
@@ -74,9 +74,6 @@
     <t>litri</t>
   </si>
   <si>
-    <t>commenti</t>
-  </si>
-  <si>
     <t>fortemente limitati dal peso max boe</t>
   </si>
   <si>
@@ -92,9 +89,6 @@
     <t>limitati dalle dimensioni della boa</t>
   </si>
   <si>
-    <t>simbolo</t>
-  </si>
-  <si>
     <t>Cr</t>
   </si>
   <si>
@@ -114,12 +108,24 @@
   </si>
   <si>
     <t>livello consigliato per massimizzare la durata batteria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Descrizione </t>
+  </si>
+  <si>
+    <t>Simbolo</t>
+  </si>
+  <si>
+    <t>Quantità</t>
+  </si>
+  <si>
+    <t>Commenti</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -430,185 +436,185 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="37.21875" customWidth="1"/>
-    <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="34.33203125" customWidth="1"/>
-    <col min="4" max="4" width="25.5546875" customWidth="1"/>
-    <col min="5" max="5" width="37.5546875" customWidth="1"/>
-    <col min="6" max="6" width="24.77734375" customWidth="1"/>
+    <col min="1" max="1" width="37.1640625" customWidth="1"/>
+    <col min="2" max="2" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="59.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>3</v>
       </c>
       <c r="C2">
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3">
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4">
         <v>300</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C5">
         <v>400</v>
       </c>
       <c r="D5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="E5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C6">
         <f>0.3*10 + 0.4*4</f>
         <v>4.5999999999999996</v>
       </c>
       <c r="D6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C8">
         <v>100</v>
       </c>
       <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>10</v>
-      </c>
-      <c r="E8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>12</v>
       </c>
       <c r="C9">
         <v>80</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C10">
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C11">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C12">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E12" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
